--- a/app/Casos categorizados.xlsx
+++ b/app/Casos categorizados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\agents\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E597312-5653-45D5-A09D-EAB6FF63AE95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2575A7A6-DB5C-4385-AE1E-2D8D53D764A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14595" yWindow="375" windowWidth="13785" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,13 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="41" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="345">
   <si>
     <t>Asunto</t>
   </si>
@@ -6757,12 +6757,6 @@
   <si>
     <t>No corresponde a facturación</t>
   </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>Columna1</t>
-  </si>
 </sst>
 </file>
 
@@ -7692,7 +7686,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="TablaDinámica3" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="TablaDinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A9:C13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -7760,7 +7754,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="TablaDinámica2" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="TablaDinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -7828,7 +7822,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000002000000}" name="TablaDinámica4" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000002000000}" name="TablaDinámica4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -7949,9 +7943,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:H149" totalsRowShown="0">
-  <autoFilter ref="A1:H149" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:G149" totalsRowShown="0">
+  <autoFilter ref="A1:G149" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Asunto"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Cuerpo"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Categoría"/>
@@ -7959,7 +7953,6 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="LangGraph"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Validación LG"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Descripcion"/>
-    <tableColumn id="3" xr3:uid="{6EAD91EC-0686-4548-B22E-7115F2136334}" name="Columna1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8250,10 +8243,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H149"/>
+  <dimension ref="A1:G149"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C131" sqref="C131"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8267,7 +8260,7 @@
     <col min="7" max="7" width="50.85546875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8289,11 +8282,8 @@
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -8316,7 +8306,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -8339,7 +8329,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -8353,7 +8343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -8373,7 +8363,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -8387,7 +8377,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -8404,7 +8394,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -8427,7 +8417,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -8444,7 +8434,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -8458,7 +8448,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -8475,7 +8465,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -8489,7 +8479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -8503,7 +8493,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -8517,7 +8507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -8534,7 +8524,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -8920,7 +8910,7 @@
         <v>109</v>
       </c>
       <c r="C40" t="s">
-        <v>110</v>
+        <v>343</v>
       </c>
       <c r="D40" t="s">
         <v>10</v>
@@ -9289,7 +9279,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>164</v>
       </c>
@@ -9306,7 +9296,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>168</v>
       </c>
@@ -9323,7 +9313,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>171</v>
       </c>
@@ -9337,7 +9327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>173</v>
       </c>
@@ -9351,7 +9341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>175</v>
       </c>
@@ -9365,7 +9355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>168</v>
       </c>
@@ -9382,7 +9372,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>178</v>
       </c>
@@ -9399,7 +9389,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>179</v>
       </c>
@@ -9413,7 +9403,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>181</v>
       </c>
@@ -9427,7 +9417,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>183</v>
       </c>
@@ -9441,7 +9431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>185</v>
       </c>
@@ -9458,7 +9448,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>187</v>
       </c>
@@ -9469,7 +9459,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>190</v>
       </c>
@@ -9479,11 +9469,8 @@
       <c r="C77" t="s">
         <v>202</v>
       </c>
-      <c r="H77" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>192</v>
       </c>
@@ -9494,7 +9481,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>194</v>
       </c>
@@ -9505,7 +9492,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>196</v>
       </c>
@@ -9516,7 +9503,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>198</v>
       </c>
@@ -9527,7 +9514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>200</v>
       </c>
@@ -9537,11 +9524,8 @@
       <c r="C82" t="s">
         <v>202</v>
       </c>
-      <c r="H82" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>203</v>
       </c>
@@ -9552,7 +9536,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>205</v>
       </c>
@@ -9563,7 +9547,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>207</v>
       </c>
@@ -9574,7 +9558,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>209</v>
       </c>
@@ -9585,7 +9569,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>211</v>
       </c>
@@ -9595,11 +9579,8 @@
       <c r="C87" t="s">
         <v>344</v>
       </c>
-      <c r="H87" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>213</v>
       </c>
@@ -9610,7 +9591,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>215</v>
       </c>
@@ -9621,7 +9602,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>217</v>
       </c>
@@ -9632,7 +9613,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>219</v>
       </c>
@@ -9643,7 +9624,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>221</v>
       </c>
@@ -9654,7 +9635,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>223</v>
       </c>
@@ -9665,7 +9646,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>225</v>
       </c>
@@ -9676,7 +9657,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>227</v>
       </c>
@@ -9687,7 +9668,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>229</v>
       </c>
@@ -9698,7 +9679,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>231</v>
       </c>
@@ -9708,11 +9689,8 @@
       <c r="C97" t="s">
         <v>344</v>
       </c>
-      <c r="H97" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>233</v>
       </c>
@@ -9723,7 +9701,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>235</v>
       </c>
@@ -9734,7 +9712,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>237</v>
       </c>
@@ -9745,7 +9723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>239</v>
       </c>
@@ -9756,7 +9734,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>241</v>
       </c>
@@ -9767,7 +9745,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>243</v>
       </c>
@@ -9778,7 +9756,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>245</v>
       </c>
@@ -9789,7 +9767,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>247</v>
       </c>
@@ -9800,7 +9778,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>249</v>
       </c>
@@ -9811,7 +9789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>251</v>
       </c>
@@ -9822,7 +9800,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>253</v>
       </c>
@@ -9833,7 +9811,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>255</v>
       </c>
@@ -9844,7 +9822,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>257</v>
       </c>
@@ -9855,7 +9833,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>259</v>
       </c>
@@ -9866,7 +9844,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>261</v>
       </c>
@@ -9876,11 +9854,8 @@
       <c r="C112" t="s">
         <v>202</v>
       </c>
-      <c r="H112" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>261</v>
       </c>
@@ -9890,11 +9865,8 @@
       <c r="C113" t="s">
         <v>202</v>
       </c>
-      <c r="H113" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>261</v>
       </c>
@@ -9904,11 +9876,8 @@
       <c r="C114" t="s">
         <v>202</v>
       </c>
-      <c r="H114" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>263</v>
       </c>
@@ -9919,7 +9888,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>265</v>
       </c>
@@ -9930,7 +9899,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>267</v>
       </c>
@@ -9941,7 +9910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>269</v>
       </c>
@@ -9952,7 +9921,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>272</v>
       </c>
@@ -9963,7 +9932,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>274</v>
       </c>
@@ -9974,7 +9943,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>276</v>
       </c>
@@ -9985,7 +9954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>278</v>
       </c>
@@ -9996,7 +9965,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>280</v>
       </c>
@@ -10007,7 +9976,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>282</v>
       </c>
@@ -10018,7 +9987,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>284</v>
       </c>
@@ -10029,7 +9998,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>286</v>
       </c>
@@ -10040,7 +10009,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>288</v>
       </c>
@@ -10051,7 +10020,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>290</v>
       </c>
@@ -10062,7 +10031,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>292</v>
       </c>
@@ -10073,7 +10042,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>294</v>
       </c>
@@ -10084,7 +10053,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>296</v>
       </c>
@@ -10094,11 +10063,8 @@
       <c r="C131" t="s">
         <v>344</v>
       </c>
-      <c r="H131" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>298</v>
       </c>
@@ -10109,7 +10075,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>300</v>
       </c>
@@ -10120,7 +10086,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>302</v>
       </c>
@@ -10131,7 +10097,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>304</v>
       </c>
@@ -10142,7 +10108,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>306</v>
       </c>
@@ -10153,7 +10119,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>308</v>
       </c>
@@ -10164,7 +10130,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>310</v>
       </c>
@@ -10175,7 +10141,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>312</v>
       </c>
@@ -10186,7 +10152,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>314</v>
       </c>
@@ -10197,7 +10163,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>316</v>
       </c>
@@ -10207,11 +10173,8 @@
       <c r="C141" t="s">
         <v>344</v>
       </c>
-      <c r="H141" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>318</v>
       </c>
@@ -10222,7 +10185,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>320</v>
       </c>
@@ -10233,7 +10196,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>323</v>
       </c>

--- a/app/Casos categorizados.xlsx
+++ b/app/Casos categorizados.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\agents\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2575A7A6-DB5C-4385-AE1E-2D8D53D764A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADE116E-7746-4B9A-AECE-F758030077A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14595" yWindow="375" windowWidth="13785" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="350">
   <si>
     <t>Asunto</t>
   </si>
@@ -6756,6 +6757,21 @@
   </si>
   <si>
     <t>No corresponde a facturación</t>
+  </si>
+  <si>
+    <t>mail vacio</t>
+  </si>
+  <si>
+    <t>Validacion</t>
+  </si>
+  <si>
+    <t>Dialogo</t>
+  </si>
+  <si>
+    <t>sirvio el reflect?</t>
+  </si>
+  <si>
+    <t>si</t>
   </si>
 </sst>
 </file>
@@ -7943,8 +7959,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:G149" totalsRowShown="0">
-  <autoFilter ref="A1:G149" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:G150" totalsRowShown="0">
+  <autoFilter ref="A1:G150" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Asunto"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Cuerpo"/>
@@ -8243,10 +8259,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G149"/>
+  <dimension ref="A1:G150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9329,24 +9345,18 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>173</v>
-      </c>
-      <c r="B68" t="s">
-        <v>174</v>
+        <v>345</v>
       </c>
       <c r="C68" t="s">
-        <v>16</v>
-      </c>
-      <c r="D68" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B69" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C69" t="s">
         <v>16</v>
@@ -9357,24 +9367,21 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B70" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C70" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D70" t="s">
         <v>10</v>
       </c>
-      <c r="G70" t="s">
-        <v>170</v>
-      </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B71" t="s">
         <v>177</v>
@@ -9391,27 +9398,30 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B72" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C72" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D72" t="s">
         <v>10</v>
       </c>
+      <c r="G72" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B73" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C73" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D73" t="s">
         <v>10</v>
@@ -9419,10 +9429,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B74" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C74" t="s">
         <v>26</v>
@@ -9433,60 +9443,63 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B75" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C75" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D75" t="s">
         <v>10</v>
       </c>
-      <c r="G75" t="s">
-        <v>170</v>
-      </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B76" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C76" t="s">
-        <v>189</v>
+        <v>21</v>
+      </c>
+      <c r="D76" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B77" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C77" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B78" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C78" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B79" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C79" t="s">
         <v>83</v>
@@ -9494,21 +9507,21 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B80" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B81" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C81" t="s">
         <v>9</v>
@@ -9516,87 +9529,87 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B82" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C82" t="s">
-        <v>202</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B83" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C83" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B84" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C84" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B85" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C85" t="s">
-        <v>343</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B86" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C86" t="s">
-        <v>26</v>
+        <v>343</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B87" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C87" t="s">
-        <v>344</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B88" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C88" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B89" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C89" t="s">
         <v>26</v>
@@ -9604,21 +9617,21 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B90" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C90" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B91" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C91" t="s">
         <v>57</v>
@@ -9626,10 +9639,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B92" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C92" t="s">
         <v>57</v>
@@ -9637,222 +9650,222 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B93" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C93" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B94" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B95" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C95" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B96" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B97" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C97" t="s">
-        <v>344</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B98" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C98" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B99" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C99" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B100" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B101" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C101" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B102" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C102" t="s">
-        <v>189</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B103" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C103" t="s">
-        <v>26</v>
+        <v>189</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B104" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C104" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B105" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C105" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B106" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B107" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C107" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B108" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C108" t="s">
-        <v>189</v>
+        <v>57</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B109" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C109" t="s">
-        <v>57</v>
+        <v>189</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B110" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C110" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B111" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C111" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B112" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C112" t="s">
-        <v>202</v>
+        <v>99</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -9863,7 +9876,7 @@
         <v>262</v>
       </c>
       <c r="C113" t="s">
-        <v>202</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -9874,26 +9887,26 @@
         <v>262</v>
       </c>
       <c r="C114" t="s">
-        <v>202</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B115" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C115" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B116" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C116" t="s">
         <v>57</v>
@@ -9901,54 +9914,54 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B117" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B118" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C118" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B119" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C119" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B120" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B121" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C121" t="s">
         <v>9</v>
@@ -9956,65 +9969,65 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B122" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C122" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B123" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B124" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C124" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B125" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B126" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C126" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B127" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C127" t="s">
         <v>21</v>
@@ -10022,98 +10035,98 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B128" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B129" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C129" t="s">
-        <v>166</v>
+        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B130" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C130" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B131" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C131" t="s">
-        <v>344</v>
+        <v>189</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B132" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C132" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B133" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B134" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C134" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B135" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C135" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B136" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C136" t="s">
         <v>57</v>
@@ -10121,10 +10134,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B137" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C137" t="s">
         <v>57</v>
@@ -10132,32 +10145,32 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B138" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B139" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C139" t="s">
-        <v>271</v>
+        <v>9</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B140" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C140" t="s">
         <v>271</v>
@@ -10165,100 +10178,111 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B141" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C141" t="s">
-        <v>344</v>
+        <v>271</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B142" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C142" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B143" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C143" t="s">
-        <v>322</v>
+        <v>26</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B144" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B145" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C145" t="s">
-        <v>166</v>
+        <v>9</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B146" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C146" t="s">
-        <v>83</v>
+        <v>166</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B147" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C147" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B148" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C148" t="s">
-        <v>322</v>
+        <v>26</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>331</v>
+      </c>
+      <c r="B149" t="s">
+        <v>332</v>
+      </c>
+      <c r="C149" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>333</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B150" t="s">
         <v>334</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C150" t="s">
         <v>16</v>
       </c>
     </row>
@@ -10637,4 +10661,934 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F7E6F3-AF69-4364-B431-C41A24CC7906}">
+  <dimension ref="A1:D150"/>
+  <sheetViews>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="C116" sqref="C116"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>349</v>
+      </c>
+      <c r="C19" t="s">
+        <v>349</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>349</v>
+      </c>
+      <c r="C24" t="s">
+        <v>349</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>349</v>
+      </c>
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>349</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>349</v>
+      </c>
+      <c r="C66" t="s">
+        <v>349</v>
+      </c>
+      <c r="D66" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>349</v>
+      </c>
+      <c r="C68" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>349</v>
+      </c>
+      <c r="C77" t="s">
+        <v>349</v>
+      </c>
+      <c r="D77" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>349</v>
+      </c>
+      <c r="C79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>349</v>
+      </c>
+      <c r="C80" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>349</v>
+      </c>
+      <c r="C85" t="s">
+        <v>349</v>
+      </c>
+      <c r="D85" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>349</v>
+      </c>
+      <c r="C87" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>349</v>
+      </c>
+      <c r="C88" t="s">
+        <v>349</v>
+      </c>
+      <c r="D88" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>349</v>
+      </c>
+      <c r="C94" t="s">
+        <v>349</v>
+      </c>
+      <c r="D94" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>349</v>
+      </c>
+      <c r="C96" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>349</v>
+      </c>
+      <c r="C101" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>349</v>
+      </c>
+      <c r="C105" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>349</v>
+      </c>
+      <c r="C109" t="s">
+        <v>349</v>
+      </c>
+      <c r="D109" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>349</v>
+      </c>
+      <c r="C116" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D121" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D126" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>349</v>
+      </c>
+      <c r="C127" t="s">
+        <v>349</v>
+      </c>
+      <c r="D127" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>349</v>
+      </c>
+      <c r="C128" t="s">
+        <v>349</v>
+      </c>
+      <c r="D128" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D129" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>349</v>
+      </c>
+      <c r="C130" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D131" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>349</v>
+      </c>
+      <c r="C132" t="s">
+        <v>349</v>
+      </c>
+      <c r="D132" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>349</v>
+      </c>
+      <c r="C133" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D134" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D135" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D136" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D137" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>349</v>
+      </c>
+      <c r="C138" t="s">
+        <v>349</v>
+      </c>
+      <c r="D138" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D139" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D140" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D141" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D142" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D143" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D144" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D146" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D147" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>349</v>
+      </c>
+      <c r="C148" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D149" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>